--- a/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -391,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +424,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,7 +636,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -765,35 +764,29 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -935,6 +928,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -999,7 +995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1030,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1245,29 +1241,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
@@ -1361,47 +1357,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="23"/>
@@ -1416,27 +1412,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="480" activePane="bottomLeft"/>
-      <selection activeCell="G1" sqref="G1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="8" max="11" width="10.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
@@ -1468,7 +1464,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>55</v>
       </c>
@@ -1478,20 +1474,20 @@
       <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="44">
         <v>2736</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="45" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="32">
         <v>51</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>55</v>
       </c>
@@ -1501,10 +1497,10 @@
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <v>2736</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="45" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="32">
@@ -1512,7 +1508,7 @@
       </c>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>55</v>
       </c>
@@ -1522,18 +1518,18 @@
       <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>2736</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="46">
         <v>52</v>
       </c>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>55</v>
       </c>
@@ -1543,18 +1539,18 @@
       <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <v>2736</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="46">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>55</v>
       </c>
@@ -1564,20 +1560,20 @@
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="43">
         <v>2736</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="46">
         <v>117</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>55</v>
       </c>
@@ -1587,20 +1583,20 @@
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="43">
         <v>2736</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="46">
         <v>700</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -1610,20 +1606,20 @@
       <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="43">
         <v>2736</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="46">
         <v>1.08</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>55</v>
       </c>
@@ -1633,27 +1629,27 @@
       <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>2736</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="47">
         <v>3.9E-2</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="34"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>54</v>
       </c>
@@ -1663,17 +1659,17 @@
       <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="44">
         <v>1086</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>54</v>
       </c>
@@ -1683,17 +1679,17 @@
       <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="43">
         <v>1086</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>53</v>
       </c>
@@ -1703,17 +1699,17 @@
       <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="44">
         <v>107</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>53</v>
       </c>
@@ -1723,17 +1719,17 @@
       <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="43">
         <v>107</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="45" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>52</v>
       </c>
@@ -1743,17 +1739,17 @@
       <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="44">
         <v>1024</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>52</v>
       </c>
@@ -1763,17 +1759,17 @@
       <c r="C17" s="34">
         <v>2</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <v>1024</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>42</v>
       </c>
@@ -1783,20 +1779,20 @@
       <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="44">
         <v>3283</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="45" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="32">
         <v>50</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>42</v>
       </c>
@@ -1806,18 +1802,18 @@
       <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="43">
         <v>3283</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="49">
         <v>1.705E-6</v>
       </c>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>42</v>
       </c>
@@ -1827,18 +1823,18 @@
       <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>3283</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="46">
         <v>49</v>
       </c>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>42</v>
       </c>
@@ -1848,18 +1844,18 @@
       <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="43">
         <v>3283</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="46">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>42</v>
       </c>
@@ -1869,20 +1865,20 @@
       <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <v>3283</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="46">
         <v>117</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>42</v>
       </c>
@@ -1892,20 +1888,20 @@
       <c r="C23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="43">
         <v>3283</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="46">
         <v>700</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>42</v>
       </c>
@@ -1915,20 +1911,20 @@
       <c r="C24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="43">
         <v>3283</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="46">
         <v>1.08</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>42</v>
       </c>
@@ -1938,27 +1934,27 @@
       <c r="C25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <v>3283</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="47">
         <v>3.9E-2</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="34"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="43"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>39</v>
       </c>
@@ -1968,17 +1964,17 @@
       <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="44">
         <v>1480</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>39</v>
       </c>
@@ -1988,17 +1984,17 @@
       <c r="C28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <v>1480</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -2008,17 +2004,17 @@
       <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="44">
         <v>134</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>37</v>
       </c>
@@ -2028,17 +2024,17 @@
       <c r="C30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <v>134</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="45" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>35</v>
       </c>
@@ -2048,17 +2044,17 @@
       <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>35</v>
       </c>
@@ -2068,17 +2064,17 @@
       <c r="C32" s="34">
         <v>2</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="D33" s="41"/>
       <c r="E33" s="40"/>
@@ -2087,7 +2083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>29</v>
       </c>
@@ -2110,7 +2106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>29</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>29</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F37" s="31"/>
     </row>
   </sheetData>

--- a/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="3804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Ref Des</t>
   </si>
@@ -116,21 +116,12 @@
     <t>CC_lon</t>
   </si>
   <si>
-    <t>GP02HYPM-RIS01-01-CTDMOG000</t>
-  </si>
-  <si>
     <t>CC_lat</t>
   </si>
   <si>
-    <t>Induction ID: 14</t>
-  </si>
-  <si>
     <t>CC_p_range</t>
   </si>
   <si>
-    <t>GP02HYPM-MPC04-01-ZPLSGA000 will be added in later deployments</t>
-  </si>
-  <si>
     <t>A13551</t>
   </si>
   <si>
@@ -198,6 +189,174 @@
   </si>
   <si>
     <t>Requires PD1960/1962 (tempwat/pracsal) from nearby CTD (GP02HYPM-WFP02-04-CTDPFL000?)</t>
+  </si>
+  <si>
+    <r>
+      <t>GP02HYPM-WFP02-00-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WFPENG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GP02HYPM-WFP03-00-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WFPENG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>GP02HYPM-MPM01-02-ZPLSGA009 will be added in later deployments</t>
+  </si>
+  <si>
+    <t>GP02HYPM-MPM01-02-ZPLSGA010 will be added in later deployments</t>
+  </si>
+  <si>
+    <t>GP02HYPM-RIM01-02-CTDMOG039</t>
+  </si>
+  <si>
+    <r>
+      <t>GP02HYPM-GP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01-00-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIOENG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>This is a made-up serial number for the controller card</t>
+  </si>
+  <si>
+    <t>GP02HYPM-00002-GPM01</t>
+  </si>
+  <si>
+    <r>
+      <t>GP02HYPM-RI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-CTDMOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>014</t>
+    </r>
+  </si>
+  <si>
+    <t>Nominal imodem ID is 39, but actual for this deployment is 14; parser will overwrite 039 from ingest .csv file with 014</t>
   </si>
 </sst>
 </file>
@@ -211,7 +370,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +554,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +590,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -636,7 +808,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -787,6 +959,37 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -1410,23 +1613,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="480" activePane="bottomLeft"/>
-      <selection activeCell="E1" sqref="E1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="10.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
@@ -1466,7 +1667,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
@@ -1478,18 +1679,18 @@
         <v>2736</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="32">
         <v>51</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>16</v>
@@ -1501,7 +1702,7 @@
         <v>2736</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="32">
         <v>1.871E-6</v>
@@ -1510,7 +1711,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>16</v>
@@ -1522,7 +1723,7 @@
         <v>2736</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="46">
         <v>52</v>
@@ -1531,7 +1732,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>16</v>
@@ -1543,7 +1744,7 @@
         <v>2736</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="46">
         <v>7.3000000000000001E-3</v>
@@ -1552,7 +1753,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>16</v>
@@ -1564,18 +1765,18 @@
         <v>2736</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="46">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="F7" s="51">
+        <v>140</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>16</v>
@@ -1587,18 +1788,18 @@
         <v>2736</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="46">
+        <v>42</v>
+      </c>
+      <c r="F8" s="48">
         <v>700</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>16</v>
@@ -1610,18 +1811,18 @@
         <v>2736</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="46">
-        <v>1.08</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="51">
+        <v>1.1299999999999999</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>16</v>
@@ -1633,13 +1834,13 @@
         <v>2736</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="47">
         <v>3.9E-2</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1651,7 +1852,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -1663,7 +1864,7 @@
         <v>1086</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="32">
         <v>50.07833333</v>
@@ -1671,7 +1872,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>16</v>
@@ -1690,88 +1891,62 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="44">
+      <c r="A14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="44">
         <v>107</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="32">
+      <c r="E15" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="43">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="43">
         <v>107</v>
       </c>
-      <c r="E15" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="32">
+      <c r="E16" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="44">
-        <v>1024</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="34">
-        <v>2</v>
-      </c>
-      <c r="D17" s="43">
-        <v>1024</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="32">
-        <v>-144.8053333</v>
-      </c>
+      <c r="A17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
@@ -1780,130 +1955,94 @@
         <v>2</v>
       </c>
       <c r="D18" s="44">
-        <v>3283</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>51</v>
+        <v>1024</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="32">
-        <v>50</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>50</v>
+        <v>50.07833333</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="34">
         <v>2</v>
       </c>
       <c r="D19" s="43">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="32">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="55">
+        <v>2</v>
+      </c>
+      <c r="D21" s="56">
+        <v>12936</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="44">
         <v>3283</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="49">
-        <v>1.705E-6</v>
-      </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E20" s="48" t="s">
+      <c r="E23" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="46">
-        <v>49</v>
-      </c>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E21" s="48" t="s">
+      <c r="F23" s="32">
+        <v>50</v>
+      </c>
+      <c r="G23" s="47" t="s">
         <v>47</v>
-      </c>
-      <c r="F21" s="46">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="46">
-        <v>117</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="46">
-        <v>700</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>16</v>
@@ -1914,19 +2053,17 @@
       <c r="D24" s="43">
         <v>3283</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="46">
-        <v>1.08</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>43</v>
-      </c>
+      <c r="E24" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="49">
+        <v>1.705E-6</v>
+      </c>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>16</v>
@@ -1938,40 +2075,55 @@
         <v>3283</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="47">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="46">
+        <v>49</v>
+      </c>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="43">
+        <v>3283</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="46">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="43">
+        <v>3283</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="51">
+        <v>140</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34"/>
-      <c r="D26" s="43"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="46"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="44">
-        <v>1480</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="32">
-        <v>50.07833333</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1985,150 +2137,141 @@
         <v>2</v>
       </c>
       <c r="D28" s="43">
-        <v>1480</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="32">
-        <v>-144.8053333</v>
+        <v>3283</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="48">
+        <v>700</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="44">
-        <v>134</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="32">
-        <v>50.07833333</v>
+      <c r="D29" s="43">
+        <v>3283</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="51">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="43">
+        <v>3283</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="47">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="43">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="34"/>
+      <c r="D31" s="43"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1480</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="32">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="43">
+        <v>1480</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="32">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="44">
         <v>134</v>
       </c>
-      <c r="E30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="E35" s="45" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="34">
-        <v>2</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>10214</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="34">
-        <v>10214</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="F35" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>16</v>
@@ -2136,18 +2279,224 @@
       <c r="C36" s="7">
         <v>2</v>
       </c>
-      <c r="D36" s="34">
-        <v>10214</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>28</v>
+      <c r="D36" s="43">
+        <v>134</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="F36" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="31"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="34"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="32">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="34">
+        <v>2</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="32">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="57"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="55">
+        <v>2</v>
+      </c>
+      <c r="D41" s="56">
+        <v>13104</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="57"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>10214</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="61">
+        <v>1450</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="34">
+        <v>10214</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="32">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="34">
+        <v>10214</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="32">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="55">
+        <v>2</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18048" windowHeight="3804" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
   <si>
     <t>Ref Des</t>
   </si>
@@ -87,9 +82,6 @@
   </si>
   <si>
     <t>144° 48.32' W</t>
-  </si>
-  <si>
-    <t>4219m</t>
   </si>
   <si>
     <t>MV1404</t>
@@ -1198,7 +1190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,7 +1225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1444,26 +1436,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1501,19 +1493,19 @@
         <v>13</v>
       </c>
       <c r="L1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
@@ -1538,11 +1530,11 @@
       <c r="H2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="25">
+        <v>4219</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="28">
@@ -1554,53 +1546,53 @@
         <v>-144.80533333333332</v>
       </c>
       <c r="N2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" s="17" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="23"/>
@@ -1615,25 +1607,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
@@ -1665,9 +1657,9 @@
       <c r="F2" s="12"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
@@ -1679,18 +1671,18 @@
         <v>2736</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="32">
         <v>51</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>16</v>
@@ -1702,16 +1694,16 @@
         <v>2736</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="32">
         <v>1.871E-6</v>
       </c>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>16</v>
@@ -1723,16 +1715,16 @@
         <v>2736</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="46">
         <v>52</v>
       </c>
       <c r="G5" s="47"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>16</v>
@@ -1744,16 +1736,16 @@
         <v>2736</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="46">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="G6" s="47"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>16</v>
@@ -1765,18 +1757,18 @@
         <v>2736</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="51">
         <v>140</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>16</v>
@@ -1788,18 +1780,18 @@
         <v>2736</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="48">
         <v>700</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>16</v>
@@ -1811,18 +1803,18 @@
         <v>2736</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="51">
         <v>1.1299999999999999</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>16</v>
@@ -1834,25 +1826,25 @@
         <v>2736</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="47">
         <v>3.9E-2</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="34"/>
       <c r="D11" s="43"/>
       <c r="F11" s="31"/>
       <c r="G11" s="46"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -1864,15 +1856,15 @@
         <v>1086</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>16</v>
@@ -1884,22 +1876,22 @@
         <v>1086</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="34"/>
       <c r="D14" s="43"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>16</v>
@@ -1911,15 +1903,15 @@
         <v>107</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>16</v>
@@ -1931,22 +1923,22 @@
         <v>107</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="34"/>
       <c r="D17" s="43"/>
       <c r="E17" s="45"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
@@ -1958,15 +1950,15 @@
         <v>1024</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>16</v>
@@ -1978,13 +1970,13 @@
         <v>1024</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -1992,9 +1984,9 @@
       <c r="E20" s="32"/>
       <c r="F20" s="52"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>16</v>
@@ -2009,7 +2001,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2017,9 +2009,9 @@
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>16</v>
@@ -2031,18 +2023,18 @@
         <v>3283</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="32">
         <v>50</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>16</v>
@@ -2054,16 +2046,16 @@
         <v>3283</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="49">
         <v>1.705E-6</v>
       </c>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>16</v>
@@ -2075,16 +2067,16 @@
         <v>3283</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="46">
         <v>49</v>
       </c>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>16</v>
@@ -2096,16 +2088,16 @@
         <v>3283</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="46">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>16</v>
@@ -2117,18 +2109,18 @@
         <v>3283</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="51">
         <v>140</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>16</v>
@@ -2140,18 +2132,18 @@
         <v>3283</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="48">
         <v>700</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>16</v>
@@ -2163,18 +2155,18 @@
         <v>3283</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="51">
         <v>1.1299999999999999</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>16</v>
@@ -2186,25 +2178,25 @@
         <v>3283</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="47">
         <v>3.9E-2</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="34"/>
       <c r="D31" s="43"/>
       <c r="F31" s="31"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>16</v>
@@ -2216,15 +2208,15 @@
         <v>1480</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>16</v>
@@ -2236,22 +2228,22 @@
         <v>1480</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="34"/>
       <c r="D34" s="43"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>16</v>
@@ -2263,15 +2255,15 @@
         <v>134</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>16</v>
@@ -2283,22 +2275,22 @@
         <v>134</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="34"/>
       <c r="D37" s="43"/>
       <c r="E37" s="45"/>
       <c r="F37" s="32"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>16</v>
@@ -2307,18 +2299,18 @@
         <v>2</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>16</v>
@@ -2327,16 +2319,16 @@
         <v>2</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -2344,9 +2336,9 @@
       <c r="E40" s="32"/>
       <c r="F40" s="58"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="54" t="s">
         <v>16</v>
@@ -2365,7 +2357,7 @@
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -2378,7 +2370,7 @@
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -2386,14 +2378,14 @@
       <c r="E43" s="32"/>
       <c r="F43" s="58"/>
       <c r="G43" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -2401,23 +2393,23 @@
       <c r="E44" s="32"/>
       <c r="F44" s="58"/>
       <c r="G44" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
       <c r="K44" s="31"/>
     </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="D45" s="41"/>
       <c r="E45" s="40"/>
       <c r="F45" s="39"/>
       <c r="G45" s="38"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>16</v>
@@ -2429,18 +2421,18 @@
         <v>10214</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="61">
         <v>1450</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>16</v>
@@ -2452,15 +2444,15 @@
         <v>10214</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" s="32">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>16</v>
@@ -2472,30 +2464,30 @@
         <v>10214</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="32">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="55">
+        <v>2</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="55">
-        <v>2</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/GP02HYPM/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="3810"/>
+    <workbookView xWindow="7440" yWindow="6700" windowWidth="29640" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Ref Des</t>
   </si>
@@ -75,16 +80,10 @@
     <t>GP02HYPM-00002</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>50° 04.70' N</t>
   </si>
   <si>
     <t>144° 48.32' W</t>
-  </si>
-  <si>
-    <t>MV1404</t>
   </si>
   <si>
     <t>??</t>
@@ -237,9 +236,6 @@
   </si>
   <si>
     <t>GP02HYPM-MPM01-02-ZPLSGA010 will be added in later deployments</t>
-  </si>
-  <si>
-    <t>GP02HYPM-RIM01-02-CTDMOG039</t>
   </si>
   <si>
     <r>
@@ -350,19 +346,59 @@
   <si>
     <t>Nominal imodem ID is 39, but actual for this deployment is 14; parser will overwrite 039 from ingest .csv file with 014</t>
   </si>
+  <si>
+    <t>MV-1404</t>
+  </si>
+  <si>
+    <t>GP02HYPM-MPM01-02-ZPLSGA009</t>
+  </si>
+  <si>
+    <t>GP02HYPM-MPM01-02-ZPLSGA010</t>
+  </si>
+  <si>
+    <r>
+      <t>13104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12936</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-02</t>
+    </r>
+  </si>
+  <si>
+    <t>GP02HYPM-RIM01-02-CTDMOG014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +585,28 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,34 +698,34 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -730,14 +788,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -799,8 +857,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -823,10 +887,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,10 +908,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -871,16 +935,10 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,8 +1041,29 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="137">
     <cellStyle name="Comma 2" xfId="62"/>
     <cellStyle name="Comma 2 2" xfId="63"/>
     <cellStyle name="Comma 2 2 2" xfId="64"/>
@@ -995,6 +1074,12 @@
     <cellStyle name="Currency 2 3" xfId="69"/>
     <cellStyle name="Excel Built-in Normal" xfId="5"/>
     <cellStyle name="Excel Built-in Normal 2" xfId="70"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="71"/>
     <cellStyle name="Hyperlink 2 3" xfId="72"/>
@@ -1131,7 +1216,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1436,29 +1521,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1492,114 +1577,119 @@
       <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" s="17" customFormat="1">
       <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25">
-        <v>2</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" s="60">
+        <v>2</v>
+      </c>
+      <c r="D2" s="61">
         <v>41842</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="62">
         <v>9.375E-2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="66">
+        <v>42157</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="I2" s="60">
         <v>4219</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="28">
+      <c r="J2" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="26">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>50.078333333333333</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="26">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-144.80533333333332</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="N2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="17" customFormat="1">
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:15" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" customFormat="1"/>
+    <row r="5" spans="1:15" customFormat="1"/>
+    <row r="6" spans="1:15" customFormat="1"/>
+    <row r="7" spans="1:15" customFormat="1"/>
+    <row r="8" spans="1:15" customFormat="1"/>
+    <row r="9" spans="1:15" s="17" customFormat="1">
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="17" customFormat="1">
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="17" customFormat="1">
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="17" customFormat="1">
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="17" customFormat="1">
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="17" customFormat="1">
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="17" customFormat="1">
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1607,25 +1697,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="13" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="13" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
@@ -1657,759 +1750,763 @@
       <c r="F2" s="12"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2736</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="30">
         <v>51</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="44">
+      <c r="G3" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="41">
         <v>2736</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1.871E-6</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41">
+        <v>2736</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="44">
+        <v>52</v>
+      </c>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2736</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="44">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41">
+        <v>2736</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49">
+        <v>140</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="41">
+        <v>2736</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="46">
+        <v>700</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2736</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="65">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2736</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="45">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="D11" s="41"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1086</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1086</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="32">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="42">
+        <v>107</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="41">
+        <v>107</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="42">
+        <v>1024</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="53">
+        <v>2</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="42">
+        <v>3283</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="30">
+        <v>50</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="47">
+        <v>1.705E-6</v>
+      </c>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="44">
+        <v>49</v>
+      </c>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="44">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G26" s="45"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="49">
+        <v>140</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="46">
+        <v>700</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="65">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="41">
+        <v>3283</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="45">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="D31" s="41"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="42">
+        <v>1480</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="41">
+        <v>1480</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="42">
+        <v>134</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="41">
+        <v>134</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="32">
+        <v>2</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="55"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="56"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="32">
-        <v>1.871E-6</v>
-      </c>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="46">
-        <v>52</v>
-      </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="46">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="51">
-        <v>140</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="48">
-        <v>700</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="51">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="43">
-        <v>2736</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="47">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
-      <c r="D11" s="43"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="44">
-        <v>1086</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="43">
-        <v>1086</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="44">
-        <v>107</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="43">
-        <v>107</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="44">
-        <v>1024</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="34">
-        <v>2</v>
-      </c>
-      <c r="D19" s="43">
-        <v>1024</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="B41" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="53">
+        <v>2</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="33"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="55">
-        <v>2</v>
-      </c>
-      <c r="D21" s="56">
-        <v>12936</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="44">
-        <v>3283</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="32">
-        <v>50</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="49">
-        <v>1.705E-6</v>
-      </c>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="46">
-        <v>49</v>
-      </c>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="46">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="51">
-        <v>140</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="48">
-        <v>700</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="51">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="43">
-        <v>3283</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="47">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
-      <c r="D31" s="43"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="46"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="44">
-        <v>1480</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="43">
-        <v>1480</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="34"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="44">
-        <v>134</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="43">
-        <v>134</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="34"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="34">
-        <v>2</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="58"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="55">
-        <v>2</v>
-      </c>
-      <c r="D41" s="56">
-        <v>13104</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-    </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
-        <v>61</v>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+    </row>
+    <row r="45" spans="1:11" s="29" customFormat="1">
+      <c r="A45" s="40"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>16</v>
@@ -2420,78 +2517,83 @@
       <c r="D46" s="7">
         <v>10214</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="61">
+      <c r="E46" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="59">
         <v>1450</v>
       </c>
-      <c r="G46" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="G46" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="32">
+        <v>10214</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="30">
+        <v>50.07833333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="32">
+        <v>10214</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="30">
+        <v>-144.8053333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="53">
+        <v>2</v>
+      </c>
+      <c r="D50" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="34">
-        <v>10214</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="32">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-      <c r="D48" s="34">
-        <v>10214</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="32">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="55">
-        <v>2</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>59</v>
+      <c r="G50" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>